--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H2">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.002024333333334</v>
+        <v>1.953983333333333</v>
       </c>
       <c r="N2">
-        <v>12.006073</v>
+        <v>5.86195</v>
       </c>
       <c r="O2">
-        <v>0.1510004182230866</v>
+        <v>0.20183677855562</v>
       </c>
       <c r="P2">
-        <v>0.1510004182230865</v>
+        <v>0.20183677855562</v>
       </c>
       <c r="Q2">
-        <v>6.791983571000334</v>
+        <v>2.5786952528</v>
       </c>
       <c r="R2">
-        <v>61.127852139003</v>
+        <v>23.2082572752</v>
       </c>
       <c r="S2">
-        <v>0.1510004182230866</v>
+        <v>0.20183677855562</v>
       </c>
       <c r="T2">
-        <v>0.1510004182230865</v>
+        <v>0.20183677855562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H3">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.737872</v>
       </c>
       <c r="O3">
-        <v>0.009280218485686812</v>
+        <v>0.02540617157539598</v>
       </c>
       <c r="P3">
-        <v>0.009280218485686812</v>
+        <v>0.02540617157539598</v>
       </c>
       <c r="Q3">
-        <v>0.4174232908213333</v>
+        <v>0.324592844288</v>
       </c>
       <c r="R3">
-        <v>3.756809617392</v>
+        <v>2.921335598592</v>
       </c>
       <c r="S3">
-        <v>0.009280218485686812</v>
+        <v>0.02540617157539598</v>
       </c>
       <c r="T3">
-        <v>0.009280218485686812</v>
+        <v>0.02540617157539598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H4">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.25541733333333</v>
+        <v>7.481066666666666</v>
       </c>
       <c r="N4">
-        <v>66.76625199999999</v>
+        <v>22.4432</v>
       </c>
       <c r="O4">
-        <v>0.8397193632912267</v>
+        <v>0.772757049868984</v>
       </c>
       <c r="P4">
-        <v>0.8397193632912267</v>
+        <v>0.772757049868984</v>
       </c>
       <c r="Q4">
-        <v>37.77049220684133</v>
+        <v>9.872853452799999</v>
       </c>
       <c r="R4">
-        <v>339.934429861572</v>
+        <v>88.8556810752</v>
       </c>
       <c r="S4">
-        <v>0.8397193632912267</v>
+        <v>0.772757049868984</v>
       </c>
       <c r="T4">
-        <v>0.8397193632912267</v>
+        <v>0.772757049868984</v>
       </c>
     </row>
   </sheetData>
